--- a/DEV/trunk/org.openl.rules/test/rules/testmethod/TestDataAccessFieldTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/testmethod/TestDataAccessFieldTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
   <si>
     <t xml:space="preserve">Data TestHelperDataBean_v10 testArray </t>
   </si>
@@ -165,9 +165,6 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>Value:Policy</t>
-  </si>
-  <si>
     <t>RETURN</t>
   </si>
   <si>
@@ -189,30 +186,18 @@
     <t>Datatype TestHelperDataBean_v10</t>
   </si>
   <si>
-    <t>Policy</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
     <t>v</t>
   </si>
   <si>
-    <t>Datatype Policy</t>
-  </si>
-  <si>
     <t xml:space="preserve">String </t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>Vehicle[]</t>
-  </si>
-  <si>
     <t>vehicles</t>
   </si>
   <si>
@@ -258,21 +243,12 @@
     <t>uwDiscount</t>
   </si>
   <si>
-    <t>Datatype Vehicle</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
     <t>vehicleAge</t>
   </si>
   <si>
-    <t>Coverage[]</t>
-  </si>
-  <si>
-    <t>coverages</t>
-  </si>
-  <si>
     <t>isBrandNew</t>
   </si>
   <si>
@@ -432,9 +408,6 @@
     <t>familyOfVehicle</t>
   </si>
   <si>
-    <t>Spreadsheet Policy returnPolicy(Policy tdata)</t>
-  </si>
-  <si>
     <t>Test returnPolicy returnPolicyTest</t>
   </si>
   <si>
@@ -454,6 +427,27 @@
   </si>
   <si>
     <t>&gt; testArray.p.brokerDiscount</t>
+  </si>
+  <si>
+    <t>Policy_123</t>
+  </si>
+  <si>
+    <t>Vehicle_123</t>
+  </si>
+  <si>
+    <t>Datatype Policy_123</t>
+  </si>
+  <si>
+    <t>Datatype Vehicle_123</t>
+  </si>
+  <si>
+    <t>Vehicle_123[]</t>
+  </si>
+  <si>
+    <t>Value:Policy_123</t>
+  </si>
+  <si>
+    <t>Spreadsheet Policy_123 returnPolicy(Policy_123 tdata)</t>
   </si>
 </sst>
 </file>
@@ -1506,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S134"/>
+  <dimension ref="B3:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1564,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="R4" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S4" s="42"/>
     </row>
@@ -1613,10 +1607,10 @@
       </c>
       <c r="N5" s="17"/>
       <c r="R5" s="28" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -1658,10 +1652,10 @@
         <v>11</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -1703,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S7" s="25" t="s">
         <v>2</v>
@@ -2196,7 +2190,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="41" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
@@ -2213,7 +2207,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -2222,11 +2216,11 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -2235,7 +2229,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="41" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
@@ -2246,10 +2240,10 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>53</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -2259,10 +2253,10 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
@@ -2272,10 +2266,10 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="36"/>
@@ -2324,190 +2318,190 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="42" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="D37" s="42"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="35" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="42" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D53" s="42"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="35" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>86</v>
+      <c r="C59" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>87</v>
+      <c r="C60" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="35" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
@@ -2515,79 +2509,79 @@
         <v>70</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="35" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="35" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="35" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
@@ -2595,171 +2589,175 @@
         <v>70</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="35" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="35" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="35" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="35" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D87" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="42"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="42" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D93" s="42"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>123</v>
-      </c>
+      <c r="D95" s="42"/>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D96" s="42"/>
+      <c r="C96" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D97" s="34" t="s">
-        <v>63</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D98" s="34" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E98" s="35"/>
       <c r="F98" s="35"/>
@@ -2767,11 +2765,11 @@
       <c r="H98" s="35"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C99" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>126</v>
+      <c r="C99" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="E99" s="35"/>
       <c r="F99" s="35"/>
@@ -2780,10 +2778,10 @@
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="33" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E100" s="35"/>
       <c r="F100" s="35"/>
@@ -2792,10 +2790,10 @@
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="33" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E101" s="35"/>
       <c r="F101" s="35"/>
@@ -2803,30 +2801,30 @@
       <c r="H101" s="35"/>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C102" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>130</v>
-      </c>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
       <c r="E102" s="35"/>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C104" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" s="42"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C105" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="42"/>
+      <c r="C105" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>124</v>
+      </c>
       <c r="E105" s="35"/>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -2834,33 +2832,33 @@
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E106" s="35"/>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C107" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D107" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D109" s="42"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D110" s="42"/>
+      <c r="C110" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110" s="35" t="s">
+        <v>127</v>
+      </c>
       <c r="E110" s="35"/>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -2868,42 +2866,39 @@
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E111" s="35"/>
       <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C112" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H112" s="35" t="s">
-        <v>137</v>
-      </c>
+      <c r="G111" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H111" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
+      <c r="B116" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="36"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="36" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="C117" s="36" t="s">
         <v>53</v>
@@ -2911,161 +2906,152 @@
       <c r="D117" s="36"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C118" s="36" t="s">
+      <c r="B118" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D118" s="36"/>
+      <c r="D118" s="38"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C119" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D119" s="38"/>
+      <c r="B119" s="2">
+        <v>41149</v>
+      </c>
+      <c r="C119" s="36">
+        <v>1</v>
+      </c>
+      <c r="D119" s="36"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
-        <v>41149</v>
+        <v>41180</v>
       </c>
       <c r="C120" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="36"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
-        <v>41180</v>
+        <v>41210</v>
       </c>
       <c r="C121" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121" s="36"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="2">
-        <v>41210</v>
-      </c>
-      <c r="C122" s="36">
-        <v>3</v>
-      </c>
-      <c r="D122" s="36"/>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
+      <c r="B124" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C125" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="36" t="s">
+      <c r="B125" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" s="36"/>
+      <c r="D125" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C126" s="36"/>
-      <c r="D126" s="39" t="s">
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
+      <c r="C128" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" s="36"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="36" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="D129" s="36"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C130" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D130" s="36"/>
+      <c r="B130" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="38"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C131" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D131" s="38"/>
+      <c r="B131" s="40">
+        <v>4</v>
+      </c>
+      <c r="C131" s="36">
+        <v>1</v>
+      </c>
+      <c r="D131" s="36"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="36"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" s="36"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="40">
-        <v>6</v>
-      </c>
-      <c r="C134" s="36">
-        <v>3</v>
-      </c>
-      <c r="D134" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B116:D116"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B115:D115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DEV/trunk/org.openl.rules/test/rules/testmethod/TestDataAccessFieldTest.xlsx
+++ b/DEV/trunk/org.openl.rules/test/rules/testmethod/TestDataAccessFieldTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20340" windowHeight="7710"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20340" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="162">
   <si>
     <t xml:space="preserve">Data TestHelperDataBean_v10 testArray </t>
   </si>
@@ -264,9 +264,6 @@
     <t>hasKitGas</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>fipe</t>
   </si>
   <si>
-    <t>Datatype Address</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integer </t>
   </si>
   <si>
@@ -448,6 +442,66 @@
   </si>
   <si>
     <t>Spreadsheet Policy_123 returnPolicy(Policy_123 tdata)</t>
+  </si>
+  <si>
+    <t>addressArry</t>
+  </si>
+  <si>
+    <t>addressArry[0].zip</t>
+  </si>
+  <si>
+    <t>addressArry[1].zip</t>
+  </si>
+  <si>
+    <t>addressArry[2].zip</t>
+  </si>
+  <si>
+    <t>Datatype Address_123</t>
+  </si>
+  <si>
+    <t>Address_123[]</t>
+  </si>
+  <si>
+    <t>&gt; testArray.addressArry</t>
+  </si>
+  <si>
+    <t>Address_123</t>
+  </si>
+  <si>
+    <t>Test returnAddressArry returnAddressArryTest</t>
+  </si>
+  <si>
+    <t>Spreadsheet Address_123[] returnAddressArry(Address_123[] tdata)</t>
+  </si>
+  <si>
+    <t>Value:Address_123[]</t>
+  </si>
+  <si>
+    <t>Data TestHelperDataBean_v10 testArray2</t>
+  </si>
+  <si>
+    <t>p.vehicles[2].model</t>
+  </si>
+  <si>
+    <t>p.vehicles[0].model</t>
+  </si>
+  <si>
+    <t>p.vehicles[1].model</t>
+  </si>
+  <si>
+    <t>Spreadsheet Vehicle_123[] returnVehicleArry(Vehicle_123[] tdata)</t>
+  </si>
+  <si>
+    <t>Value:Vehicle_123[]</t>
+  </si>
+  <si>
+    <t>Test returnVehicleArry returnVehicleArryTest</t>
+  </si>
+  <si>
+    <t>&gt; testArray2.p.vehicles</t>
+  </si>
+  <si>
+    <t>&gt; testArray2.p.vehicles quoteDate</t>
   </si>
 </sst>
 </file>
@@ -459,7 +513,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +721,13 @@
       <color indexed="19"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="28">
@@ -987,16 +1048,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1060,7 +1117,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -1115,10 +1172,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1136,12 +1191,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="20% - Accent1 2" xfId="4"/>
@@ -1500,367 +1566,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S133"/>
+  <dimension ref="B2:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" customWidth="1"/>
     <col min="18" max="18" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+    </row>
+    <row r="10" spans="2:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="18" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="18" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="R4" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="42"/>
-    </row>
-    <row r="5" spans="2:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="R5" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C12" s="2">
         <v>41149</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2011</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="9">
-        <v>78638</v>
-      </c>
-      <c r="N6" s="7">
-        <v>11</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>41180</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2012</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="9">
-        <v>90250</v>
-      </c>
-      <c r="N7" s="7">
-        <v>11</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>41210</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2012</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="9">
-        <v>78638</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>41241</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2012</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="9">
-        <v>84509</v>
-      </c>
-      <c r="N9" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>41271</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2012</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="9">
-        <v>90250</v>
-      </c>
-      <c r="N10" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>41302</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2012</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="9">
-        <v>95416</v>
-      </c>
-      <c r="N11" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>41333</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -1868,36 +1734,47 @@
       <c r="E12" s="11">
         <v>0.2</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K12" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="9">
-        <v>85766</v>
+        <v>78638</v>
       </c>
       <c r="N12" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>41361</v>
+        <v>41180</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -1905,16 +1782,18 @@
       <c r="E13" s="11">
         <v>0.2</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K13" s="3">
         <v>2012</v>
@@ -1923,18 +1802,27 @@
         <v>26</v>
       </c>
       <c r="M13" s="9">
-        <v>73623</v>
+        <v>90250</v>
       </c>
       <c r="N13" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>41392</v>
+        <v>41210</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -1942,16 +1830,18 @@
       <c r="E14" s="11">
         <v>0.2</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K14" s="3">
         <v>2012</v>
@@ -1960,18 +1850,27 @@
         <v>26</v>
       </c>
       <c r="M14" s="9">
-        <v>55620</v>
+        <v>78638</v>
       </c>
       <c r="N14" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>41422</v>
+        <v>41241</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -1985,10 +1884,10 @@
         <v>22</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K15" s="3">
         <v>2012</v>
@@ -1997,18 +1896,27 @@
         <v>26</v>
       </c>
       <c r="M15" s="9">
-        <v>65478</v>
+        <v>84509</v>
       </c>
       <c r="N15" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>41453</v>
+        <v>41271</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -2016,16 +1924,18 @@
       <c r="E16" s="11">
         <v>0.2</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K16" s="3">
         <v>2012</v>
@@ -2034,55 +1944,73 @@
         <v>26</v>
       </c>
       <c r="M16" s="9">
-        <v>65478</v>
+        <v>90250</v>
       </c>
       <c r="N16" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>41483</v>
-      </c>
-      <c r="D17" s="10">
+        <v>41302</v>
+      </c>
+      <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>0.2</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="10">
+      <c r="I17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="3">
         <v>2012</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="9">
-        <v>63633</v>
+        <v>95416</v>
       </c>
       <c r="N17" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>22</v>
+      </c>
+      <c r="Q17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>41514</v>
+        <v>41333</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -2096,30 +2024,39 @@
         <v>22</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K18" s="3">
         <v>2012</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="9">
-        <v>51267</v>
+        <v>85766</v>
       </c>
       <c r="N18" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>19</v>
+      </c>
+      <c r="P18">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
-        <v>41545</v>
+        <v>41361</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -2133,10 +2070,10 @@
         <v>22</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K19" s="3">
         <v>2012</v>
@@ -2145,18 +2082,27 @@
         <v>26</v>
       </c>
       <c r="M19" s="9">
-        <v>23822</v>
+        <v>73623</v>
       </c>
       <c r="N19" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>22</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
-        <v>41575</v>
+        <v>41392</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -2170,10 +2116,10 @@
         <v>22</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K20" s="3">
         <v>2012</v>
@@ -2182,889 +2128,2174 @@
         <v>26</v>
       </c>
       <c r="M20" s="9">
-        <v>75975</v>
+        <v>55620</v>
       </c>
       <c r="N20" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>34</v>
+      </c>
+      <c r="Q20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41422</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2012</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="9">
+        <v>65478</v>
+      </c>
+      <c r="N21" s="7">
+        <v>11</v>
+      </c>
+      <c r="O21">
+        <v>28</v>
+      </c>
+      <c r="P21">
+        <v>38</v>
+      </c>
+      <c r="Q21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>41453</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2012</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="9">
+        <v>65478</v>
+      </c>
+      <c r="N22" s="7">
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <v>31</v>
+      </c>
+      <c r="P22">
+        <v>42</v>
+      </c>
+      <c r="Q22">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>41483</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="10">
+        <v>2012</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="9">
+        <v>63633</v>
+      </c>
+      <c r="N23" s="7">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>34</v>
+      </c>
+      <c r="Q23">
         <v>47</v>
       </c>
-      <c r="C24" s="37" t="s">
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>41514</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2012</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="9">
+        <v>51267</v>
+      </c>
+      <c r="N24" s="7">
+        <v>11</v>
+      </c>
+      <c r="O24">
+        <v>37</v>
+      </c>
+      <c r="Q24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>41545</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2012</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="9">
+        <v>23822</v>
+      </c>
+      <c r="N25" s="7">
+        <v>11</v>
+      </c>
+      <c r="O25">
+        <v>40</v>
+      </c>
+      <c r="Q25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <v>41575</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2012</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="9">
+        <v>75975</v>
+      </c>
+      <c r="N26" s="7">
+        <v>11</v>
+      </c>
+      <c r="O26">
+        <v>43</v>
+      </c>
+      <c r="Q26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="D30" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="39" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="40">
+      <c r="D36" s="36"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="38">
         <v>1</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C37" s="34">
         <v>4</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="36">
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="34">
         <v>2</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C38" s="34">
         <v>5</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="36">
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="34">
         <v>3</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C39" s="34">
         <v>6</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="42" t="s">
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="44"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="42"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="35" t="s">
+      <c r="D45" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="44"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D60" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="35" t="s">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="35" t="s">
+      <c r="D61" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="35" t="s">
+      <c r="D63" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="35" t="s">
+      <c r="D69" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="29" t="s">
+      <c r="D79" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="29" t="s">
+      <c r="D81" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="35" t="s">
+      <c r="D82" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="35" t="s">
+      <c r="D89" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="42"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="35" t="s">
+      <c r="D90" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="35" t="s">
+      <c r="D92" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="31" t="s">
+      <c r="D93" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D87" s="30" t="s">
+      <c r="D94" s="24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" s="26" t="s">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D95" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" s="42"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D95" s="42"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C97" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D97" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C98" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
+      <c r="C98" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" s="44"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C101" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" s="44"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C103" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C104" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C105" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D105" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-    </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C100" s="33" t="s">
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C110" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-    </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C101" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D101" s="33" t="s">
+      <c r="D110" s="44"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-    </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-    </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C104" s="42" t="s">
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D104" s="42"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C105" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D105" s="35" t="s">
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C115" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="35"/>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C106" s="35" t="s">
+      <c r="D115" s="44"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C116" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C117" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D106" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="35"/>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C109" s="42" t="s">
+      <c r="D117" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D109" s="42"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-    </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="35" t="s">
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D110" s="35" t="s">
+      <c r="H117" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D111" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H111" s="35" t="s">
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="34"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="41" t="s">
+      <c r="C123" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D123" s="34"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" s="36"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="2">
+        <v>41149</v>
+      </c>
+      <c r="C125" s="34">
+        <v>1</v>
+      </c>
+      <c r="D125" s="34"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="2">
+        <v>41180</v>
+      </c>
+      <c r="C126" s="34">
+        <v>2</v>
+      </c>
+      <c r="D126" s="34"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="2">
+        <v>41210</v>
+      </c>
+      <c r="C127" s="34">
+        <v>3</v>
+      </c>
+      <c r="D127" s="34"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="36" t="s">
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="34"/>
+      <c r="D131" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C134" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D116" s="36"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C117" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D117" s="36"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="38" t="s">
+      <c r="D134" s="34"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D135" s="34"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="38" t="s">
+      <c r="C136" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D118" s="38"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="2">
-        <v>41149</v>
-      </c>
-      <c r="C119" s="36">
+      <c r="D136" s="36"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="38">
+        <v>4</v>
+      </c>
+      <c r="C137" s="34">
         <v>1</v>
       </c>
-      <c r="D119" s="36"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="2">
-        <v>41180</v>
-      </c>
-      <c r="C120" s="36">
+      <c r="D137" s="34"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="38">
+        <v>5</v>
+      </c>
+      <c r="C138" s="34">
         <v>2</v>
       </c>
-      <c r="D120" s="36"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="2">
-        <v>41210</v>
-      </c>
-      <c r="C121" s="36">
+      <c r="D138" s="34"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="38">
+        <v>6</v>
+      </c>
+      <c r="C139" s="34">
         <v>3</v>
       </c>
-      <c r="D121" s="36"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="37" t="s">
+      <c r="D139" s="34"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C141" s="43"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="43"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C124" s="37" t="s">
+      <c r="C142" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="36" t="s">
+      <c r="D142" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="35"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="36"/>
-      <c r="D125" s="39" t="s">
+      <c r="C143" s="34"/>
+      <c r="D143" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" s="41"/>
-      <c r="D127" s="41"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="36" t="s">
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="34"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" s="43"/>
+      <c r="D145" s="35"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C146" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D128" s="36"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C129" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D129" s="36"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="38" t="s">
+      <c r="D146" s="34"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" s="34"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C148" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="38"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="40">
+      <c r="D148" s="36"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="38">
         <v>4</v>
       </c>
-      <c r="C131" s="36">
+      <c r="C149" s="34">
         <v>1</v>
       </c>
-      <c r="D131" s="36"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="40">
+      <c r="D149" s="34"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="38">
         <v>5</v>
       </c>
-      <c r="C132" s="36">
+      <c r="C150" s="34">
         <v>2</v>
       </c>
-      <c r="D132" s="36"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="40">
+      <c r="D150" s="34"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="38">
         <v>6</v>
       </c>
-      <c r="C133" s="36">
+      <c r="C151" s="34">
         <v>3</v>
       </c>
-      <c r="D133" s="36"/>
+      <c r="D151" s="34"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="42">
+        <v>7</v>
+      </c>
+      <c r="C152" s="41">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B115:D115"/>
+  <mergeCells count="14">
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C101:D101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+    </row>
+    <row r="3" spans="3:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="C4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="34">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41149</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2011</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="9">
+        <v>78638</v>
+      </c>
+      <c r="O5" s="7">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>41180</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="9">
+        <v>90250</v>
+      </c>
+      <c r="O6" s="7">
+        <v>11</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="34">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>41210</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="9">
+        <v>78638</v>
+      </c>
+      <c r="O7" s="7">
+        <v>11</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="34">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41241</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="9">
+        <v>84509</v>
+      </c>
+      <c r="O8" s="7">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+      <c r="R8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="34">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>41271</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="9">
+        <v>90250</v>
+      </c>
+      <c r="O9" s="7">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>13</v>
+      </c>
+      <c r="Q9">
+        <v>18</v>
+      </c>
+      <c r="R9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="34">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41302</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="9">
+        <v>95416</v>
+      </c>
+      <c r="O10" s="7">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>16</v>
+      </c>
+      <c r="Q10">
+        <v>22</v>
+      </c>
+      <c r="R10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="34">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>41333</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="9">
+        <v>85766</v>
+      </c>
+      <c r="O11" s="7">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>19</v>
+      </c>
+      <c r="Q11">
+        <v>26</v>
+      </c>
+      <c r="R11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="34">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>41361</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="9">
+        <v>73623</v>
+      </c>
+      <c r="O12" s="7">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>22</v>
+      </c>
+      <c r="Q12">
+        <v>30</v>
+      </c>
+      <c r="R12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="34">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>41392</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="9">
+        <v>55620</v>
+      </c>
+      <c r="O13" s="7">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <v>34</v>
+      </c>
+      <c r="R13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="34">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>41422</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="9">
+        <v>65478</v>
+      </c>
+      <c r="O14" s="7">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>28</v>
+      </c>
+      <c r="Q14">
+        <v>38</v>
+      </c>
+      <c r="R14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="34">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>41453</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="9">
+        <v>65478</v>
+      </c>
+      <c r="O15" s="7">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>31</v>
+      </c>
+      <c r="Q15">
+        <v>42</v>
+      </c>
+      <c r="R15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="34">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>41483</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="27">
+        <v>2012</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="9">
+        <v>63633</v>
+      </c>
+      <c r="O16" s="7">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>34</v>
+      </c>
+      <c r="R16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="34">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>41514</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="9">
+        <v>51267</v>
+      </c>
+      <c r="O17" s="7">
+        <v>11</v>
+      </c>
+      <c r="P17">
+        <v>37</v>
+      </c>
+      <c r="R17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="34">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>41545</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="9">
+        <v>23822</v>
+      </c>
+      <c r="O18" s="7">
+        <v>11</v>
+      </c>
+      <c r="P18">
+        <v>40</v>
+      </c>
+      <c r="R18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="34">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41575</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2012</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="9">
+        <v>75975</v>
+      </c>
+      <c r="O19" s="7">
+        <v>11</v>
+      </c>
+      <c r="P19">
+        <v>43</v>
+      </c>
+      <c r="R19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="36"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="38">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>41149</v>
+      </c>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="38">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>41210</v>
+      </c>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="38">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>41302</v>
+      </c>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="42">
+        <v>7</v>
+      </c>
+      <c r="C33" s="47">
+        <v>41333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B26:C26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
